--- a/VCM/FuelInjectorCalculator.xlsx
+++ b/VCM/FuelInjectorCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekti\E78_14T\VCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9359B737-8809-4674-8778-F765BD81F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A3F575-8A4C-42F1-B68A-A76618189EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F6983189-106E-42F2-85E0-89E9CF1C5F98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F6983189-106E-42F2-85E0-89E9CF1C5F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>AHISL</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>&lt;- Change only this</t>
   </si>
 </sst>
 </file>
@@ -545,20 +548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E0B25-83FD-44AA-B3DE-2F974DD0D504}">
   <dimension ref="A2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -609,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +663,11 @@
       <c r="Q3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,7 +747,7 @@
         <v>0.15302280830044102</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
@@ -763,7 +770,7 @@
         <v>0.13772052747039693</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L7" s="2">
         <f>L6-L5</f>
         <v>0.15302280830044102</v>
@@ -779,7 +786,7 @@
         <v>0.1071159658103087</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
@@ -791,7 +798,7 @@
         <v>9.1813684980264612E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T9">
         <v>0.5</v>
       </c>
@@ -800,7 +807,7 @@
         <v>7.6511404150220508E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T10">
         <v>0.6</v>
       </c>
@@ -809,7 +816,7 @@
         <v>6.120912332017641E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T11">
         <v>0.8</v>
       </c>
@@ -818,7 +825,7 @@
         <v>3.0604561660088195E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T12">
         <v>0.9</v>
       </c>
@@ -827,7 +834,7 @@
         <v>1.5302280830044097E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T13">
         <v>1</v>
       </c>
@@ -836,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T14">
         <v>1.1000000000000001</v>
       </c>
@@ -845,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T15">
         <v>1.3</v>
       </c>
@@ -854,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T16">
         <v>1.4</v>
       </c>
@@ -863,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T17">
         <v>1.5</v>
       </c>
@@ -872,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T18">
         <v>1.6</v>
       </c>
@@ -881,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T19">
         <v>1.8</v>
       </c>
@@ -890,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T20">
         <v>1.9</v>
       </c>
@@ -899,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T21">
         <v>2</v>
       </c>
@@ -908,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -937,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -979,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>137.89514</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206.84271000000001</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>269.998683067944</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>345.013646592339</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>414.030152589718</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>482.97774889112901</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>12</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f>_xlfn.XLOOKUP(P5, A24:A29, B24:B29, , -1, 1) + (P5 - _xlfn.XLOOKUP(P5, A24:A29, A24:A29, , -1, 1)) * (_xlfn.XLOOKUP(P5, A24:A29, B24:B29, , 1, 1) - _xlfn.XLOOKUP(P5, A24:A29, B24:B29, , -1, 1)) / (_xlfn.XLOOKUP(P5, A24:A29, A24:A29, , 1, 1) - _xlfn.XLOOKUP(P5, A24:A29, A24:A29, , -1, 1))</f>
         <v>1.0083187033216012</v>
@@ -1287,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>13.5</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>14</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>15</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>15.8999996185303</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>3.9</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>4</v>
       </c>
@@ -1396,7 +1403,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
